--- a/GaitParameter.xlsx
+++ b/GaitParameter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="749">
   <si>
     <t>filename</t>
   </si>
@@ -598,6 +598,1668 @@
   </si>
   <si>
     <t>AnklePowerAveR</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>RSS04gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait03.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait04.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait05.c3d</t>
+  </si>
+  <si>
+    <t>RSS04gait06.c3d</t>
+  </si>
+  <si>
+    <t>TTiltminL</t>
+  </si>
+  <si>
+    <t>TTiltmaxL</t>
+  </si>
+  <si>
+    <t>TTiltRangeL</t>
+  </si>
+  <si>
+    <t>TTiltAveL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpL</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeL</t>
+  </si>
+  <si>
+    <t>TRotmaxExtL</t>
+  </si>
+  <si>
+    <t>TRotmaxIntL</t>
+  </si>
+  <si>
+    <t>TRotRangeL</t>
+  </si>
+  <si>
+    <t>PTiltmaxL</t>
+  </si>
+  <si>
+    <t>PTiltminL</t>
+  </si>
+  <si>
+    <t>PTiltRangeL</t>
+  </si>
+  <si>
+    <t>PTiltAveL</t>
+  </si>
+  <si>
+    <t>POblmaxUpL</t>
+  </si>
+  <si>
+    <t>POblmaxDownL</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceL</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingL</t>
+  </si>
+  <si>
+    <t>POblAveSwingL</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingL</t>
+  </si>
+  <si>
+    <t>POblRangeL</t>
+  </si>
+  <si>
+    <t>PRotmaxExtL</t>
+  </si>
+  <si>
+    <t>PRotmaxIntL</t>
+  </si>
+  <si>
+    <t>PRotRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexminL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingL</t>
+  </si>
+  <si>
+    <t>HipFlexRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexICL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipAddmaxL</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipFrontRangeL</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotL</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotL</t>
+  </si>
+  <si>
+    <t>HipRotRangeL</t>
+  </si>
+  <si>
+    <t>HipRotAveL</t>
+  </si>
+  <si>
+    <t>HipRotICL</t>
+  </si>
+  <si>
+    <t>KneeFlexminL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingL</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingL</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeL</t>
+  </si>
+  <si>
+    <t>KneeFlexICL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_L</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_L</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsL</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingL</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeL</t>
+  </si>
+  <si>
+    <t>AnkleSagICL</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_L</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingL</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtL</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntL</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceL</t>
+  </si>
+  <si>
+    <t>HipSagMomMaxFlexL</t>
+  </si>
+  <si>
+    <t>HipSagMomMaxExtL</t>
+  </si>
+  <si>
+    <t>HipSagMomMaxExtStanceL</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAddL</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdL</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdES_L</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdESTimingL</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdLS_L</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdLSTimingLminus32</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdLSTimingL</t>
+  </si>
+  <si>
+    <t>HipfrontMomAveAbdES_L</t>
+  </si>
+  <si>
+    <t>HipfrontMomAveAbdLS_L</t>
+  </si>
+  <si>
+    <t>HipfrontMomAveStanceL</t>
+  </si>
+  <si>
+    <t>HipTransMommaxIntL</t>
+  </si>
+  <si>
+    <t>HipTransMommaxExtL</t>
+  </si>
+  <si>
+    <t>KneeSagMommaxFlexL</t>
+  </si>
+  <si>
+    <t>KneeSagMommaxExtL</t>
+  </si>
+  <si>
+    <t>KneeSagMomMaxExtLRL</t>
+  </si>
+  <si>
+    <t>KneeSagMomMinExtMSL</t>
+  </si>
+  <si>
+    <t>KneeSagMomAveStanceL</t>
+  </si>
+  <si>
+    <t>KneeFrontMommaxVarusL</t>
+  </si>
+  <si>
+    <t>KneeFrontMommaxValgusL</t>
+  </si>
+  <si>
+    <t>KneeFrontMomAveStanceL</t>
+  </si>
+  <si>
+    <t>KneeTransMommaxExtL</t>
+  </si>
+  <si>
+    <t>KneeTransMommaxIntL</t>
+  </si>
+  <si>
+    <t>AnkleSagMommaxdorsL</t>
+  </si>
+  <si>
+    <t>AnkleSagMommaxplantL</t>
+  </si>
+  <si>
+    <t>HipPowermaxGenL</t>
+  </si>
+  <si>
+    <t>HipPowermaxAbsL</t>
+  </si>
+  <si>
+    <t>HipPowerAveL</t>
+  </si>
+  <si>
+    <t>KneePowermaxGenL</t>
+  </si>
+  <si>
+    <t>KneePowermaxAbsL</t>
+  </si>
+  <si>
+    <t>KneePowerAveL</t>
+  </si>
+  <si>
+    <t>AnklePowermaxGenL</t>
+  </si>
+  <si>
+    <t>AnklePowermaxAbsL</t>
+  </si>
+  <si>
+    <t>AnklePowerAveL</t>
+  </si>
+  <si>
+    <t>TTiltminR</t>
+  </si>
+  <si>
+    <t>TTiltmaxR</t>
+  </si>
+  <si>
+    <t>TTiltRangeR</t>
+  </si>
+  <si>
+    <t>TTiltAveR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpR</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeR</t>
+  </si>
+  <si>
+    <t>TRotmaxExtR</t>
+  </si>
+  <si>
+    <t>TRotmaxIntR</t>
+  </si>
+  <si>
+    <t>TRotRangeR</t>
+  </si>
+  <si>
+    <t>PTiltmaxR</t>
+  </si>
+  <si>
+    <t>PTiltminR</t>
+  </si>
+  <si>
+    <t>PTiltRangeR</t>
+  </si>
+  <si>
+    <t>PTiltAveR</t>
+  </si>
+  <si>
+    <t>POblmaxUpR</t>
+  </si>
+  <si>
+    <t>POblmaxDownR</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceR</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingR</t>
+  </si>
+  <si>
+    <t>POblAveSwingR</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingR</t>
+  </si>
+  <si>
+    <t>POblRangeR</t>
+  </si>
+  <si>
+    <t>PRotmaxExtR</t>
+  </si>
+  <si>
+    <t>PRotmaxIntR</t>
+  </si>
+  <si>
+    <t>PRotRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexminR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingR</t>
+  </si>
+  <si>
+    <t>HipFlexRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexICR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipAddmaxR</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipFrontRangeR</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotR</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotR</t>
+  </si>
+  <si>
+    <t>HipRotRangeR</t>
+  </si>
+  <si>
+    <t>HipRotAveR</t>
+  </si>
+  <si>
+    <t>HipRotICR</t>
+  </si>
+  <si>
+    <t>KneeFlexminR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingR</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingR</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeR</t>
+  </si>
+  <si>
+    <t>KneeFlexICR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_R</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_R</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsR</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingR</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeR</t>
+  </si>
+  <si>
+    <t>AnkleSagICR</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_R</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingR</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtR</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntR</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceR</t>
+  </si>
+  <si>
+    <t>HipSagMomMaxFlexR</t>
+  </si>
+  <si>
+    <t>HipSagMomMaxExtR</t>
+  </si>
+  <si>
+    <t>HipSagMomMaxExtStanceR</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAddR</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdR</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdES_R</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdESTimingR</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdLS_R</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdLSTimingRminus32</t>
+  </si>
+  <si>
+    <t>HipfrontMommaxAbdLSTimingR</t>
+  </si>
+  <si>
+    <t>HipfrontMomAveAbdES_R</t>
+  </si>
+  <si>
+    <t>HipfrontMomAveAbdLS_R</t>
+  </si>
+  <si>
+    <t>HipfrontMomAveStanceR</t>
+  </si>
+  <si>
+    <t>HipTransMommaxIntR</t>
+  </si>
+  <si>
+    <t>HipTransMommaxExtR</t>
+  </si>
+  <si>
+    <t>KneeSagMommaxFlexR</t>
+  </si>
+  <si>
+    <t>KneeSagMommaxExtR</t>
+  </si>
+  <si>
+    <t>KneeSagMomMaxExtLRR</t>
+  </si>
+  <si>
+    <t>KneeSagMomMinExtMSR</t>
+  </si>
+  <si>
+    <t>KneeSagMomAveStanceR</t>
+  </si>
+  <si>
+    <t>KneeFrontMommaxVarusR</t>
+  </si>
+  <si>
+    <t>KneeFrontMommaxValgusR</t>
+  </si>
+  <si>
+    <t>KneeFrontMomAveStanceR</t>
+  </si>
+  <si>
+    <t>KneeTransMommaxExtR</t>
+  </si>
+  <si>
+    <t>KneeTransMommaxIntR</t>
+  </si>
+  <si>
+    <t>AnkleSagMommaxdorsR</t>
+  </si>
+  <si>
+    <t>AnkleSagMommaxplantR</t>
+  </si>
+  <si>
+    <t>HipPowermaxGenR</t>
+  </si>
+  <si>
+    <t>HipPowermaxAbsR</t>
+  </si>
+  <si>
+    <t>HipPowerAveR</t>
+  </si>
+  <si>
+    <t>KneePowermaxGenR</t>
+  </si>
+  <si>
+    <t>KneePowermaxAbsR</t>
+  </si>
+  <si>
+    <t>KneePowerAveR</t>
+  </si>
+  <si>
+    <t>AnklePowermaxGenR</t>
+  </si>
+  <si>
+    <t>AnklePowermaxAbsR</t>
+  </si>
+  <si>
+    <t>AnklePowerAveR</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait01.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait04.c3d</t>
+  </si>
+  <si>
+    <t>TTiltminL</t>
+  </si>
+  <si>
+    <t>TTiltmaxL</t>
+  </si>
+  <si>
+    <t>TTiltRangeL</t>
+  </si>
+  <si>
+    <t>TTiltAveL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpL</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeL</t>
+  </si>
+  <si>
+    <t>TRotmaxExtL</t>
+  </si>
+  <si>
+    <t>TRotmaxIntL</t>
+  </si>
+  <si>
+    <t>TRotRangeL</t>
+  </si>
+  <si>
+    <t>PTiltmaxL</t>
+  </si>
+  <si>
+    <t>PTiltminL</t>
+  </si>
+  <si>
+    <t>PTiltRangeL</t>
+  </si>
+  <si>
+    <t>PTiltAveL</t>
+  </si>
+  <si>
+    <t>POblmaxUpL</t>
+  </si>
+  <si>
+    <t>POblmaxDownL</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceL</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingL</t>
+  </si>
+  <si>
+    <t>POblAveSwingL</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingL</t>
+  </si>
+  <si>
+    <t>POblRangeL</t>
+  </si>
+  <si>
+    <t>PRotmaxExtL</t>
+  </si>
+  <si>
+    <t>PRotmaxIntL</t>
+  </si>
+  <si>
+    <t>PRotRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexminL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingL</t>
+  </si>
+  <si>
+    <t>HipFlexRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexICL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipAddmaxL</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipFrontRangeL</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotL</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotL</t>
+  </si>
+  <si>
+    <t>HipRotRangeL</t>
+  </si>
+  <si>
+    <t>HipRotAveL</t>
+  </si>
+  <si>
+    <t>HipRotICL</t>
+  </si>
+  <si>
+    <t>KneeFlexminL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingL</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingL</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeL</t>
+  </si>
+  <si>
+    <t>KneeFlexICL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_L</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_L</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsL</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingL</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeL</t>
+  </si>
+  <si>
+    <t>AnkleSagICL</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_L</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingL</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtL</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntL</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceL</t>
+  </si>
+  <si>
+    <t>TTiltminR</t>
+  </si>
+  <si>
+    <t>TTiltmaxR</t>
+  </si>
+  <si>
+    <t>TTiltRangeR</t>
+  </si>
+  <si>
+    <t>TTiltAveR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpR</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeR</t>
+  </si>
+  <si>
+    <t>TRotmaxExtR</t>
+  </si>
+  <si>
+    <t>TRotmaxIntR</t>
+  </si>
+  <si>
+    <t>TRotRangeR</t>
+  </si>
+  <si>
+    <t>PTiltmaxR</t>
+  </si>
+  <si>
+    <t>PTiltminR</t>
+  </si>
+  <si>
+    <t>PTiltRangeR</t>
+  </si>
+  <si>
+    <t>PTiltAveR</t>
+  </si>
+  <si>
+    <t>POblmaxUpR</t>
+  </si>
+  <si>
+    <t>POblmaxDownR</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceR</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingR</t>
+  </si>
+  <si>
+    <t>POblAveSwingR</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingR</t>
+  </si>
+  <si>
+    <t>POblRangeR</t>
+  </si>
+  <si>
+    <t>PRotmaxExtR</t>
+  </si>
+  <si>
+    <t>PRotmaxIntR</t>
+  </si>
+  <si>
+    <t>PRotRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexminR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingR</t>
+  </si>
+  <si>
+    <t>HipFlexRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexICR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipAddmaxR</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipFrontRangeR</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotR</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotR</t>
+  </si>
+  <si>
+    <t>HipRotRangeR</t>
+  </si>
+  <si>
+    <t>HipRotAveR</t>
+  </si>
+  <si>
+    <t>HipRotICR</t>
+  </si>
+  <si>
+    <t>KneeFlexminR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingR</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingR</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeR</t>
+  </si>
+  <si>
+    <t>KneeFlexICR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_R</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_R</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsR</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingR</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeR</t>
+  </si>
+  <si>
+    <t>AnkleSagICR</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_R</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingR</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtR</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntR</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceR</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait01.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait04.c3d</t>
+  </si>
+  <si>
+    <t>TTiltminL</t>
+  </si>
+  <si>
+    <t>TTiltmaxL</t>
+  </si>
+  <si>
+    <t>TTiltRangeL</t>
+  </si>
+  <si>
+    <t>TTiltAveL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpL</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeL</t>
+  </si>
+  <si>
+    <t>TRotmaxExtL</t>
+  </si>
+  <si>
+    <t>TRotmaxIntL</t>
+  </si>
+  <si>
+    <t>TRotRangeL</t>
+  </si>
+  <si>
+    <t>PTiltmaxL</t>
+  </si>
+  <si>
+    <t>PTiltminL</t>
+  </si>
+  <si>
+    <t>PTiltRangeL</t>
+  </si>
+  <si>
+    <t>PTiltAveL</t>
+  </si>
+  <si>
+    <t>POblmaxUpL</t>
+  </si>
+  <si>
+    <t>POblmaxDownL</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceL</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingL</t>
+  </si>
+  <si>
+    <t>POblAveSwingL</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingL</t>
+  </si>
+  <si>
+    <t>POblRangeL</t>
+  </si>
+  <si>
+    <t>PRotmaxExtL</t>
+  </si>
+  <si>
+    <t>PRotmaxIntL</t>
+  </si>
+  <si>
+    <t>PRotRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexminL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingL</t>
+  </si>
+  <si>
+    <t>HipFlexRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexICL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipAddmaxL</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipFrontRangeL</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotL</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotL</t>
+  </si>
+  <si>
+    <t>HipRotRangeL</t>
+  </si>
+  <si>
+    <t>HipRotAveL</t>
+  </si>
+  <si>
+    <t>HipRotICL</t>
+  </si>
+  <si>
+    <t>KneeFlexminL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingL</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingL</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeL</t>
+  </si>
+  <si>
+    <t>KneeFlexICL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_L</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_L</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsL</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingL</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeL</t>
+  </si>
+  <si>
+    <t>AnkleSagICL</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_L</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingL</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtL</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntL</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceL</t>
+  </si>
+  <si>
+    <t>TTiltminR</t>
+  </si>
+  <si>
+    <t>TTiltmaxR</t>
+  </si>
+  <si>
+    <t>TTiltRangeR</t>
+  </si>
+  <si>
+    <t>TTiltAveR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpR</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeR</t>
+  </si>
+  <si>
+    <t>TRotmaxExtR</t>
+  </si>
+  <si>
+    <t>TRotmaxIntR</t>
+  </si>
+  <si>
+    <t>TRotRangeR</t>
+  </si>
+  <si>
+    <t>PTiltmaxR</t>
+  </si>
+  <si>
+    <t>PTiltminR</t>
+  </si>
+  <si>
+    <t>PTiltRangeR</t>
+  </si>
+  <si>
+    <t>PTiltAveR</t>
+  </si>
+  <si>
+    <t>POblmaxUpR</t>
+  </si>
+  <si>
+    <t>POblmaxDownR</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceR</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingR</t>
+  </si>
+  <si>
+    <t>POblAveSwingR</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingR</t>
+  </si>
+  <si>
+    <t>POblRangeR</t>
+  </si>
+  <si>
+    <t>PRotmaxExtR</t>
+  </si>
+  <si>
+    <t>PRotmaxIntR</t>
+  </si>
+  <si>
+    <t>PRotRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexminR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingR</t>
+  </si>
+  <si>
+    <t>HipFlexRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexICR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipAddmaxR</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipFrontRangeR</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotR</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotR</t>
+  </si>
+  <si>
+    <t>HipRotRangeR</t>
+  </si>
+  <si>
+    <t>HipRotAveR</t>
+  </si>
+  <si>
+    <t>HipRotICR</t>
+  </si>
+  <si>
+    <t>KneeFlexminR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingR</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingR</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeR</t>
+  </si>
+  <si>
+    <t>KneeFlexICR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_R</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_R</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsR</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingR</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeR</t>
+  </si>
+  <si>
+    <t>AnkleSagICR</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_R</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingR</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtR</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntR</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceR</t>
+  </si>
+  <si>
+    <t>filename</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait01.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait02.c3d</t>
+  </si>
+  <si>
+    <t>RSS06_barefoot_gait04.c3d</t>
+  </si>
+  <si>
+    <t>TTiltminL</t>
+  </si>
+  <si>
+    <t>TTiltmaxL</t>
+  </si>
+  <si>
+    <t>TTiltRangeL</t>
+  </si>
+  <si>
+    <t>TTiltAveL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownL</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpL</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeL</t>
+  </si>
+  <si>
+    <t>TRotmaxExtL</t>
+  </si>
+  <si>
+    <t>TRotmaxIntL</t>
+  </si>
+  <si>
+    <t>TRotRangeL</t>
+  </si>
+  <si>
+    <t>PTiltmaxL</t>
+  </si>
+  <si>
+    <t>PTiltminL</t>
+  </si>
+  <si>
+    <t>PTiltRangeL</t>
+  </si>
+  <si>
+    <t>PTiltAveL</t>
+  </si>
+  <si>
+    <t>POblmaxUpL</t>
+  </si>
+  <si>
+    <t>POblmaxDownL</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceL</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingL</t>
+  </si>
+  <si>
+    <t>POblAveSwingL</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingL</t>
+  </si>
+  <si>
+    <t>POblRangeL</t>
+  </si>
+  <si>
+    <t>PRotmaxExtL</t>
+  </si>
+  <si>
+    <t>PRotmaxIntL</t>
+  </si>
+  <si>
+    <t>PRotRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexminL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxL</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingL</t>
+  </si>
+  <si>
+    <t>HipFlexRangeL</t>
+  </si>
+  <si>
+    <t>HipFlexICL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxL</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipAddmaxL</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingL</t>
+  </si>
+  <si>
+    <t>HipFrontRangeL</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotL</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotL</t>
+  </si>
+  <si>
+    <t>HipRotRangeL</t>
+  </si>
+  <si>
+    <t>HipRotAveL</t>
+  </si>
+  <si>
+    <t>HipRotICL</t>
+  </si>
+  <si>
+    <t>KneeFlexminL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingL</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingL</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeL</t>
+  </si>
+  <si>
+    <t>KneeFlexICL</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_L</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_L</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsL</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantL</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingL</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeL</t>
+  </si>
+  <si>
+    <t>AnkleSagICL</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_L</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingL</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtL</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntL</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceL</t>
+  </si>
+  <si>
+    <t>TTiltminR</t>
+  </si>
+  <si>
+    <t>TTiltmaxR</t>
+  </si>
+  <si>
+    <t>TTiltRangeR</t>
+  </si>
+  <si>
+    <t>TTiltAveR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxDownR</t>
+  </si>
+  <si>
+    <t>TLatSwaymaxUpR</t>
+  </si>
+  <si>
+    <t>TLatSwayRangeR</t>
+  </si>
+  <si>
+    <t>TRotmaxExtR</t>
+  </si>
+  <si>
+    <t>TRotmaxIntR</t>
+  </si>
+  <si>
+    <t>TRotRangeR</t>
+  </si>
+  <si>
+    <t>PTiltmaxR</t>
+  </si>
+  <si>
+    <t>PTiltminR</t>
+  </si>
+  <si>
+    <t>PTiltRangeR</t>
+  </si>
+  <si>
+    <t>PTiltAveR</t>
+  </si>
+  <si>
+    <t>POblmaxUpR</t>
+  </si>
+  <si>
+    <t>POblmaxDownR</t>
+  </si>
+  <si>
+    <t>POblmaxUpStanceR</t>
+  </si>
+  <si>
+    <t>POblmaxUpSwingR</t>
+  </si>
+  <si>
+    <t>POblAveSwingR</t>
+  </si>
+  <si>
+    <t>POblmaxUpTimingR</t>
+  </si>
+  <si>
+    <t>POblRangeR</t>
+  </si>
+  <si>
+    <t>PRotmaxExtR</t>
+  </si>
+  <si>
+    <t>PRotmaxIntR</t>
+  </si>
+  <si>
+    <t>PRotRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexminR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxR</t>
+  </si>
+  <si>
+    <t>HipFlexmaxInswingR</t>
+  </si>
+  <si>
+    <t>HipFlexRangeR</t>
+  </si>
+  <si>
+    <t>HipFlexICR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxR</t>
+  </si>
+  <si>
+    <t>HipAbdmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipAddmaxR</t>
+  </si>
+  <si>
+    <t>HipAddmaxTimingR</t>
+  </si>
+  <si>
+    <t>HipFrontRangeR</t>
+  </si>
+  <si>
+    <t>HipmaxExtRotR</t>
+  </si>
+  <si>
+    <t>HipmaxIntRotR</t>
+  </si>
+  <si>
+    <t>HipRotRangeR</t>
+  </si>
+  <si>
+    <t>HipRotAveR</t>
+  </si>
+  <si>
+    <t>HipRotICR</t>
+  </si>
+  <si>
+    <t>KneeFlexminR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxTimingR</t>
+  </si>
+  <si>
+    <t>KneeFlexPeakinSwingR</t>
+  </si>
+  <si>
+    <t>KneeFlexRangeR</t>
+  </si>
+  <si>
+    <t>KneeFlexICR</t>
+  </si>
+  <si>
+    <t>KneeFlexmaxLR_R</t>
+  </si>
+  <si>
+    <t>KneeFlexminMS_R</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsR</t>
+  </si>
+  <si>
+    <t>AnklemaxDorsTimingR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantR</t>
+  </si>
+  <si>
+    <t>AnklemaxPlantTimingR</t>
+  </si>
+  <si>
+    <t>AnkleSagRangeR</t>
+  </si>
+  <si>
+    <t>AnkleSagICR</t>
+  </si>
+  <si>
+    <t>AnklePeakFlexLR_R</t>
+  </si>
+  <si>
+    <t>AnkleSagmaxTermSwingR</t>
+  </si>
+  <si>
+    <t>FootProgmaxExtR</t>
+  </si>
+  <si>
+    <t>FootProgmaxIntR</t>
+  </si>
+  <si>
+    <t>FootProgAveStanceR</t>
   </si>
 </sst>
 </file>
@@ -618,7 +2280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -627,13 +2289,21 @@
       <diagonal/>
     </border>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -646,8 +2316,8 @@
   <dimension ref="A1:GG7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.48828125" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="1" max="1" width="23.7109375" customWidth="true"/>
+    <col min="2" max="2" width="11.7109375" customWidth="true"/>
     <col min="3" max="3" width="11.7109375" customWidth="true"/>
     <col min="4" max="4" width="11.7109375" customWidth="true"/>
     <col min="5" max="5" width="11.7109375" customWidth="true"/>
@@ -661,17 +2331,17 @@
     <col min="13" max="13" width="11.7109375" customWidth="true"/>
     <col min="14" max="14" width="11.7109375" customWidth="true"/>
     <col min="15" max="15" width="11.7109375" customWidth="true"/>
-    <col min="16" max="16" width="11.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
     <col min="17" max="17" width="14.046875" customWidth="true"/>
     <col min="18" max="18" width="17.046875" customWidth="true"/>
     <col min="19" max="19" width="16.26953125" customWidth="true"/>
     <col min="20" max="20" width="13.48828125" customWidth="true"/>
     <col min="21" max="21" width="16.93359375" customWidth="true"/>
     <col min="22" max="22" width="11.7109375" customWidth="true"/>
-    <col min="23" max="23" width="13.37890625" customWidth="true"/>
+    <col min="23" max="23" width="12.37890625" customWidth="true"/>
     <col min="24" max="24" width="11.7109375" customWidth="true"/>
     <col min="25" max="25" width="11.7109375" customWidth="true"/>
-    <col min="26" max="26" width="13.37890625" customWidth="true"/>
+    <col min="26" max="26" width="11.7109375" customWidth="true"/>
     <col min="27" max="27" width="11.7109375" customWidth="true"/>
     <col min="28" max="28" width="17.48828125" customWidth="true"/>
     <col min="29" max="29" width="12.93359375" customWidth="true"/>
@@ -684,14 +2354,14 @@
     <col min="36" max="36" width="13.6015625" customWidth="true"/>
     <col min="37" max="37" width="13.26953125" customWidth="true"/>
     <col min="38" max="38" width="12.6015625" customWidth="true"/>
-    <col min="39" max="39" width="12.37890625" customWidth="true"/>
-    <col min="40" max="40" width="12.37890625" customWidth="true"/>
-    <col min="41" max="41" width="12.37890625" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
+    <col min="40" max="40" width="11.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.26953125" customWidth="true"/>
     <col min="42" max="42" width="12.7109375" customWidth="true"/>
     <col min="43" max="43" width="18.046875" customWidth="true"/>
     <col min="44" max="44" width="19.26953125" customWidth="true"/>
     <col min="45" max="45" width="14.26953125" customWidth="true"/>
-    <col min="46" max="46" width="12.37890625" customWidth="true"/>
+    <col min="46" max="46" width="11.7109375" customWidth="true"/>
     <col min="47" max="47" width="15.7109375" customWidth="true"/>
     <col min="48" max="48" width="15.82421875" customWidth="true"/>
     <col min="49" max="49" width="13.7109375" customWidth="true"/>
@@ -699,70 +2369,70 @@
     <col min="51" max="51" width="14.046875" customWidth="true"/>
     <col min="52" max="52" width="19.37890625" customWidth="true"/>
     <col min="53" max="53" width="14.26953125" customWidth="true"/>
-    <col min="54" max="54" width="11.7109375" customWidth="true"/>
+    <col min="54" max="54" width="13.37890625" customWidth="true"/>
     <col min="55" max="55" width="16.6015625" customWidth="true"/>
     <col min="56" max="56" width="21.6015625" customWidth="true"/>
     <col min="57" max="57" width="15.48828125" customWidth="true"/>
     <col min="58" max="58" width="15.15625" customWidth="true"/>
     <col min="59" max="59" width="17.93359375" customWidth="true"/>
-    <col min="60" max="60" width="18.6015625" customWidth="true"/>
-    <col min="61" max="61" width="17.93359375" customWidth="true"/>
-    <col min="62" max="62" width="23.37890625" customWidth="true"/>
-    <col min="63" max="63" width="19.7109375" customWidth="true"/>
-    <col min="64" max="64" width="19.7109375" customWidth="true"/>
-    <col min="65" max="65" width="22.6015625" customWidth="true"/>
-    <col min="66" max="66" width="26.93359375" customWidth="true"/>
-    <col min="67" max="67" width="22.48828125" customWidth="true"/>
-    <col min="68" max="68" width="33.6015625" customWidth="true"/>
-    <col min="69" max="69" width="26.82421875" customWidth="true"/>
-    <col min="70" max="70" width="22.15625" customWidth="true"/>
-    <col min="71" max="71" width="22.046875" customWidth="true"/>
-    <col min="72" max="72" width="21.6015625" customWidth="true"/>
-    <col min="73" max="73" width="19.15625" customWidth="true"/>
-    <col min="74" max="74" width="19.48828125" customWidth="true"/>
-    <col min="75" max="75" width="19.82421875" customWidth="true"/>
-    <col min="76" max="76" width="19.15625" customWidth="true"/>
-    <col min="77" max="77" width="21.26953125" customWidth="true"/>
-    <col min="78" max="78" width="21.37890625" customWidth="true"/>
-    <col min="79" max="79" width="21.6015625" customWidth="true"/>
-    <col min="80" max="80" width="22.7109375" customWidth="true"/>
-    <col min="81" max="81" width="23.37890625" customWidth="true"/>
-    <col min="82" max="82" width="23.15625" customWidth="true"/>
-    <col min="83" max="83" width="20.82421875" customWidth="true"/>
-    <col min="84" max="84" width="20.48828125" customWidth="true"/>
-    <col min="85" max="85" width="20.6015625" customWidth="true"/>
-    <col min="86" max="86" width="21.15625" customWidth="true"/>
-    <col min="87" max="87" width="16.6015625" customWidth="true"/>
-    <col min="88" max="88" width="16.26953125" customWidth="true"/>
-    <col min="89" max="89" width="12.93359375" customWidth="true"/>
-    <col min="90" max="90" width="17.93359375" customWidth="true"/>
-    <col min="91" max="91" width="17.6015625" customWidth="true"/>
-    <col min="92" max="92" width="14.26953125" customWidth="true"/>
-    <col min="93" max="93" width="18.37890625" customWidth="true"/>
-    <col min="94" max="94" width="18.046875" customWidth="true"/>
-    <col min="95" max="95" width="14.7109375" customWidth="true"/>
-    <col min="96" max="96" width="13.7109375" customWidth="true"/>
-    <col min="97" max="97" width="11.7109375" customWidth="true"/>
-    <col min="98" max="98" width="11.7109375" customWidth="true"/>
-    <col min="99" max="99" width="11.7109375" customWidth="true"/>
-    <col min="100" max="100" width="18.26953125" customWidth="true"/>
-    <col min="101" max="101" width="15.82421875" customWidth="true"/>
-    <col min="102" max="102" width="15.046875" customWidth="true"/>
-    <col min="103" max="103" width="12.37890625" customWidth="true"/>
-    <col min="104" max="104" width="11.82421875" customWidth="true"/>
-    <col min="105" max="105" width="11.7109375" customWidth="true"/>
-    <col min="106" max="106" width="11.7109375" customWidth="true"/>
-    <col min="107" max="107" width="11.7109375" customWidth="true"/>
-    <col min="108" max="108" width="11.7109375" customWidth="true"/>
-    <col min="109" max="109" width="11.7109375" customWidth="true"/>
-    <col min="110" max="110" width="11.82421875" customWidth="true"/>
-    <col min="111" max="111" width="14.26953125" customWidth="true"/>
-    <col min="112" max="112" width="17.26953125" customWidth="true"/>
-    <col min="113" max="113" width="16.48828125" customWidth="true"/>
-    <col min="114" max="114" width="13.7109375" customWidth="true"/>
-    <col min="115" max="115" width="17.15625" customWidth="true"/>
-    <col min="116" max="116" width="11.7109375" customWidth="true"/>
-    <col min="117" max="117" width="12.37890625" customWidth="true"/>
+    <col min="60" max="60" width="11.7109375" customWidth="true"/>
+    <col min="61" max="61" width="11.7109375" customWidth="true"/>
+    <col min="62" max="62" width="11.7109375" customWidth="true"/>
+    <col min="63" max="63" width="11.7109375" customWidth="true"/>
+    <col min="64" max="64" width="18.26953125" customWidth="true"/>
+    <col min="65" max="65" width="15.82421875" customWidth="true"/>
+    <col min="66" max="66" width="15.046875" customWidth="true"/>
+    <col min="67" max="67" width="12.37890625" customWidth="true"/>
+    <col min="68" max="68" width="13.37890625" customWidth="true"/>
+    <col min="69" max="69" width="11.7109375" customWidth="true"/>
+    <col min="70" max="70" width="11.7109375" customWidth="true"/>
+    <col min="71" max="71" width="11.7109375" customWidth="true"/>
+    <col min="72" max="72" width="11.7109375" customWidth="true"/>
+    <col min="73" max="73" width="11.7109375" customWidth="true"/>
+    <col min="74" max="74" width="11.82421875" customWidth="true"/>
+    <col min="75" max="75" width="14.26953125" customWidth="true"/>
+    <col min="76" max="76" width="17.26953125" customWidth="true"/>
+    <col min="77" max="77" width="16.48828125" customWidth="true"/>
+    <col min="78" max="78" width="13.7109375" customWidth="true"/>
+    <col min="79" max="79" width="17.15625" customWidth="true"/>
+    <col min="80" max="80" width="11.7109375" customWidth="true"/>
+    <col min="81" max="81" width="12.7109375" customWidth="true"/>
+    <col min="82" max="82" width="11.82421875" customWidth="true"/>
+    <col min="83" max="83" width="11.7109375" customWidth="true"/>
+    <col min="84" max="84" width="11.7109375" customWidth="true"/>
+    <col min="85" max="85" width="11.7109375" customWidth="true"/>
+    <col min="86" max="86" width="17.7109375" customWidth="true"/>
+    <col min="87" max="87" width="13.15625" customWidth="true"/>
+    <col min="88" max="88" width="11.7109375" customWidth="true"/>
+    <col min="89" max="89" width="12.37890625" customWidth="true"/>
+    <col min="90" max="90" width="16.82421875" customWidth="true"/>
+    <col min="91" max="91" width="11.7109375" customWidth="true"/>
+    <col min="92" max="92" width="16.82421875" customWidth="true"/>
+    <col min="93" max="93" width="14.26953125" customWidth="true"/>
+    <col min="94" max="94" width="13.82421875" customWidth="true"/>
+    <col min="95" max="95" width="13.48828125" customWidth="true"/>
+    <col min="96" max="96" width="12.82421875" customWidth="true"/>
+    <col min="97" max="97" width="12.7109375" customWidth="true"/>
+    <col min="98" max="98" width="13.7109375" customWidth="true"/>
+    <col min="99" max="99" width="12.48828125" customWidth="true"/>
+    <col min="100" max="100" width="12.93359375" customWidth="true"/>
+    <col min="101" max="101" width="18.26953125" customWidth="true"/>
+    <col min="102" max="102" width="19.48828125" customWidth="true"/>
+    <col min="103" max="103" width="14.48828125" customWidth="true"/>
+    <col min="104" max="104" width="11.7109375" customWidth="true"/>
+    <col min="105" max="105" width="15.93359375" customWidth="true"/>
+    <col min="106" max="106" width="16.046875" customWidth="true"/>
+    <col min="107" max="107" width="13.93359375" customWidth="true"/>
+    <col min="108" max="108" width="19.26953125" customWidth="true"/>
+    <col min="109" max="109" width="14.26953125" customWidth="true"/>
+    <col min="110" max="110" width="19.6015625" customWidth="true"/>
+    <col min="111" max="111" width="14.48828125" customWidth="true"/>
+    <col min="112" max="112" width="11.7109375" customWidth="true"/>
+    <col min="113" max="113" width="16.82421875" customWidth="true"/>
+    <col min="114" max="114" width="21.82421875" customWidth="true"/>
+    <col min="115" max="115" width="15.7109375" customWidth="true"/>
+    <col min="116" max="116" width="15.37890625" customWidth="true"/>
+    <col min="117" max="117" width="18.15625" customWidth="true"/>
     <col min="118" max="118" width="11.82421875" customWidth="true"/>
     <col min="119" max="119" width="11.7109375" customWidth="true"/>
     <col min="120" max="120" width="12.37890625" customWidth="true"/>
@@ -839,881 +2509,925 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>629</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>7</v>
+        <v>633</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>8</v>
+        <v>634</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>9</v>
+        <v>635</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>10</v>
+        <v>636</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>11</v>
+        <v>637</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>12</v>
+        <v>638</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>13</v>
+        <v>639</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>14</v>
+        <v>640</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>15</v>
+        <v>641</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>16</v>
+        <v>642</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>17</v>
+        <v>643</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>18</v>
+        <v>644</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>19</v>
+        <v>645</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>20</v>
+        <v>646</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>21</v>
+        <v>647</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>22</v>
+        <v>648</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>23</v>
+        <v>649</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>24</v>
+        <v>650</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>25</v>
+        <v>651</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>26</v>
+        <v>652</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>27</v>
+        <v>653</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>28</v>
+        <v>654</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>29</v>
+        <v>655</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>30</v>
+        <v>656</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>31</v>
+        <v>657</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>32</v>
+        <v>658</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>33</v>
+        <v>659</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>34</v>
+        <v>660</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>35</v>
+        <v>661</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>36</v>
+        <v>662</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>37</v>
+        <v>663</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>38</v>
+        <v>664</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>39</v>
+        <v>665</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>40</v>
+        <v>666</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>41</v>
+        <v>667</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>42</v>
+        <v>668</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>43</v>
+        <v>669</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>44</v>
+        <v>670</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>45</v>
+        <v>671</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>46</v>
+        <v>672</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>47</v>
+        <v>673</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>48</v>
+        <v>674</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>49</v>
+        <v>675</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>50</v>
+        <v>676</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>51</v>
+        <v>677</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>52</v>
+        <v>678</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>53</v>
+        <v>679</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>54</v>
+        <v>680</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>55</v>
+        <v>681</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>56</v>
+        <v>682</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>57</v>
+        <v>683</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>58</v>
+        <v>684</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>59</v>
+        <v>685</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>60</v>
+        <v>686</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>61</v>
+        <v>687</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>62</v>
+        <v>688</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>63</v>
+        <v>689</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>64</v>
+        <v>690</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>65</v>
+        <v>691</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>66</v>
+        <v>692</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>67</v>
+        <v>693</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>68</v>
+        <v>694</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>69</v>
+        <v>695</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>70</v>
+        <v>696</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>71</v>
+        <v>697</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>72</v>
+        <v>698</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>73</v>
+        <v>699</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>74</v>
+        <v>700</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>75</v>
+        <v>701</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>76</v>
+        <v>702</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>77</v>
+        <v>703</v>
       </c>
       <c r="BU1" s="0" t="s">
-        <v>78</v>
+        <v>704</v>
       </c>
       <c r="BV1" s="0" t="s">
-        <v>79</v>
+        <v>705</v>
       </c>
       <c r="BW1" s="0" t="s">
-        <v>80</v>
+        <v>706</v>
       </c>
       <c r="BX1" s="0" t="s">
-        <v>81</v>
+        <v>707</v>
       </c>
       <c r="BY1" s="0" t="s">
-        <v>82</v>
+        <v>708</v>
       </c>
       <c r="BZ1" s="0" t="s">
-        <v>83</v>
+        <v>709</v>
       </c>
       <c r="CA1" s="0" t="s">
-        <v>84</v>
+        <v>710</v>
       </c>
       <c r="CB1" s="0" t="s">
-        <v>85</v>
+        <v>711</v>
       </c>
       <c r="CC1" s="0" t="s">
-        <v>86</v>
+        <v>712</v>
       </c>
       <c r="CD1" s="0" t="s">
-        <v>87</v>
+        <v>713</v>
       </c>
       <c r="CE1" s="0" t="s">
-        <v>88</v>
+        <v>714</v>
       </c>
       <c r="CF1" s="0" t="s">
-        <v>89</v>
+        <v>715</v>
       </c>
       <c r="CG1" s="0" t="s">
-        <v>90</v>
+        <v>716</v>
       </c>
       <c r="CH1" s="0" t="s">
-        <v>91</v>
+        <v>717</v>
       </c>
       <c r="CI1" s="0" t="s">
-        <v>92</v>
+        <v>718</v>
       </c>
       <c r="CJ1" s="0" t="s">
-        <v>93</v>
+        <v>719</v>
       </c>
       <c r="CK1" s="0" t="s">
-        <v>94</v>
+        <v>720</v>
       </c>
       <c r="CL1" s="0" t="s">
-        <v>95</v>
+        <v>721</v>
       </c>
       <c r="CM1" s="0" t="s">
-        <v>96</v>
+        <v>722</v>
       </c>
       <c r="CN1" s="0" t="s">
-        <v>97</v>
+        <v>723</v>
       </c>
       <c r="CO1" s="0" t="s">
-        <v>98</v>
+        <v>724</v>
       </c>
       <c r="CP1" s="0" t="s">
-        <v>99</v>
+        <v>725</v>
       </c>
       <c r="CQ1" s="0" t="s">
-        <v>100</v>
+        <v>726</v>
       </c>
       <c r="CR1" s="0" t="s">
-        <v>101</v>
+        <v>727</v>
       </c>
       <c r="CS1" s="0" t="s">
-        <v>102</v>
+        <v>728</v>
       </c>
       <c r="CT1" s="0" t="s">
-        <v>103</v>
+        <v>729</v>
       </c>
       <c r="CU1" s="0" t="s">
-        <v>104</v>
+        <v>730</v>
       </c>
       <c r="CV1" s="0" t="s">
-        <v>105</v>
+        <v>731</v>
       </c>
       <c r="CW1" s="0" t="s">
-        <v>106</v>
+        <v>732</v>
       </c>
       <c r="CX1" s="0" t="s">
-        <v>107</v>
+        <v>733</v>
       </c>
       <c r="CY1" s="0" t="s">
-        <v>108</v>
+        <v>734</v>
       </c>
       <c r="CZ1" s="0" t="s">
-        <v>109</v>
+        <v>735</v>
       </c>
       <c r="DA1" s="0" t="s">
-        <v>110</v>
+        <v>736</v>
       </c>
       <c r="DB1" s="0" t="s">
-        <v>111</v>
+        <v>737</v>
       </c>
       <c r="DC1" s="0" t="s">
-        <v>112</v>
+        <v>738</v>
       </c>
       <c r="DD1" s="0" t="s">
-        <v>113</v>
+        <v>739</v>
       </c>
       <c r="DE1" s="0" t="s">
-        <v>114</v>
+        <v>740</v>
       </c>
       <c r="DF1" s="0" t="s">
-        <v>115</v>
+        <v>741</v>
       </c>
       <c r="DG1" s="0" t="s">
-        <v>116</v>
+        <v>742</v>
       </c>
       <c r="DH1" s="0" t="s">
-        <v>117</v>
+        <v>743</v>
       </c>
       <c r="DI1" s="0" t="s">
-        <v>118</v>
+        <v>744</v>
       </c>
       <c r="DJ1" s="0" t="s">
-        <v>119</v>
+        <v>745</v>
       </c>
       <c r="DK1" s="0" t="s">
-        <v>120</v>
+        <v>746</v>
       </c>
       <c r="DL1" s="0" t="s">
-        <v>121</v>
+        <v>747</v>
       </c>
       <c r="DM1" s="0" t="s">
-        <v>122</v>
+        <v>748</v>
       </c>
       <c r="DN1" s="0" t="s">
-        <v>123</v>
+        <v>317</v>
       </c>
       <c r="DO1" s="0" t="s">
-        <v>124</v>
+        <v>318</v>
       </c>
       <c r="DP1" s="0" t="s">
-        <v>125</v>
+        <v>319</v>
       </c>
       <c r="DQ1" s="0" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="DR1" s="0" t="s">
-        <v>127</v>
+        <v>321</v>
       </c>
       <c r="DS1" s="0" t="s">
-        <v>128</v>
+        <v>322</v>
       </c>
       <c r="DT1" s="0" t="s">
-        <v>129</v>
+        <v>323</v>
       </c>
       <c r="DU1" s="0" t="s">
-        <v>130</v>
+        <v>324</v>
       </c>
       <c r="DV1" s="0" t="s">
-        <v>131</v>
+        <v>325</v>
       </c>
       <c r="DW1" s="0" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="DX1" s="0" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="DY1" s="0" t="s">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="DZ1" s="0" t="s">
-        <v>135</v>
+        <v>329</v>
       </c>
       <c r="EA1" s="0" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="EB1" s="0" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
       <c r="EC1" s="0" t="s">
-        <v>138</v>
+        <v>332</v>
       </c>
       <c r="ED1" s="0" t="s">
-        <v>139</v>
+        <v>333</v>
       </c>
       <c r="EE1" s="0" t="s">
-        <v>140</v>
+        <v>334</v>
       </c>
       <c r="EF1" s="0" t="s">
-        <v>141</v>
+        <v>335</v>
       </c>
       <c r="EG1" s="0" t="s">
-        <v>142</v>
+        <v>336</v>
       </c>
       <c r="EH1" s="0" t="s">
-        <v>143</v>
+        <v>337</v>
       </c>
       <c r="EI1" s="0" t="s">
-        <v>144</v>
+        <v>338</v>
       </c>
       <c r="EJ1" s="0" t="s">
-        <v>145</v>
+        <v>339</v>
       </c>
       <c r="EK1" s="0" t="s">
-        <v>146</v>
+        <v>340</v>
       </c>
       <c r="EL1" s="0" t="s">
-        <v>147</v>
+        <v>341</v>
       </c>
       <c r="EM1" s="0" t="s">
-        <v>148</v>
+        <v>342</v>
       </c>
       <c r="EN1" s="0" t="s">
-        <v>149</v>
+        <v>343</v>
       </c>
       <c r="EO1" s="0" t="s">
-        <v>150</v>
+        <v>344</v>
       </c>
       <c r="EP1" s="0" t="s">
-        <v>151</v>
+        <v>345</v>
       </c>
       <c r="EQ1" s="0" t="s">
-        <v>152</v>
+        <v>346</v>
       </c>
       <c r="ER1" s="0" t="s">
-        <v>153</v>
+        <v>347</v>
       </c>
       <c r="ES1" s="0" t="s">
-        <v>154</v>
+        <v>348</v>
       </c>
       <c r="ET1" s="0" t="s">
-        <v>155</v>
+        <v>349</v>
       </c>
       <c r="EU1" s="0" t="s">
-        <v>156</v>
+        <v>350</v>
       </c>
       <c r="EV1" s="0" t="s">
-        <v>157</v>
+        <v>351</v>
       </c>
       <c r="EW1" s="0" t="s">
-        <v>158</v>
+        <v>352</v>
       </c>
       <c r="EX1" s="0" t="s">
-        <v>159</v>
+        <v>353</v>
       </c>
       <c r="EY1" s="0" t="s">
-        <v>160</v>
+        <v>354</v>
       </c>
       <c r="EZ1" s="0" t="s">
-        <v>161</v>
+        <v>355</v>
       </c>
       <c r="FA1" s="0" t="s">
-        <v>162</v>
+        <v>356</v>
       </c>
       <c r="FB1" s="0" t="s">
-        <v>163</v>
+        <v>357</v>
       </c>
       <c r="FC1" s="0" t="s">
-        <v>164</v>
+        <v>358</v>
       </c>
       <c r="FD1" s="0" t="s">
-        <v>165</v>
+        <v>359</v>
       </c>
       <c r="FE1" s="0" t="s">
-        <v>166</v>
+        <v>360</v>
       </c>
       <c r="FF1" s="0" t="s">
-        <v>167</v>
+        <v>361</v>
       </c>
       <c r="FG1" s="0" t="s">
-        <v>168</v>
+        <v>362</v>
       </c>
       <c r="FH1" s="0" t="s">
-        <v>169</v>
+        <v>363</v>
       </c>
       <c r="FI1" s="0" t="s">
-        <v>170</v>
+        <v>364</v>
       </c>
       <c r="FJ1" s="0" t="s">
-        <v>171</v>
+        <v>365</v>
       </c>
       <c r="FK1" s="0" t="s">
-        <v>172</v>
+        <v>366</v>
       </c>
       <c r="FL1" s="0" t="s">
-        <v>173</v>
+        <v>367</v>
       </c>
       <c r="FM1" s="0" t="s">
-        <v>174</v>
+        <v>368</v>
       </c>
       <c r="FN1" s="0" t="s">
-        <v>175</v>
+        <v>369</v>
       </c>
       <c r="FO1" s="0" t="s">
-        <v>176</v>
+        <v>370</v>
       </c>
       <c r="FP1" s="0" t="s">
-        <v>177</v>
+        <v>371</v>
       </c>
       <c r="FQ1" s="0" t="s">
-        <v>178</v>
+        <v>372</v>
       </c>
       <c r="FR1" s="0" t="s">
-        <v>179</v>
+        <v>373</v>
       </c>
       <c r="FS1" s="0" t="s">
-        <v>180</v>
+        <v>374</v>
       </c>
       <c r="FT1" s="0" t="s">
-        <v>181</v>
+        <v>375</v>
       </c>
       <c r="FU1" s="0" t="s">
-        <v>182</v>
+        <v>376</v>
       </c>
       <c r="FV1" s="0" t="s">
-        <v>183</v>
+        <v>377</v>
       </c>
       <c r="FW1" s="0" t="s">
-        <v>184</v>
+        <v>378</v>
       </c>
       <c r="FX1" s="0" t="s">
-        <v>185</v>
+        <v>379</v>
       </c>
       <c r="FY1" s="0" t="s">
-        <v>186</v>
+        <v>380</v>
       </c>
       <c r="FZ1" s="0" t="s">
-        <v>187</v>
+        <v>381</v>
       </c>
       <c r="GA1" s="0" t="s">
-        <v>188</v>
+        <v>382</v>
       </c>
       <c r="GB1" s="0" t="s">
-        <v>189</v>
+        <v>383</v>
       </c>
       <c r="GC1" s="0" t="s">
-        <v>190</v>
+        <v>384</v>
       </c>
       <c r="GD1" s="0" t="s">
-        <v>191</v>
+        <v>385</v>
       </c>
       <c r="GE1" s="0" t="s">
-        <v>192</v>
+        <v>386</v>
       </c>
       <c r="GF1" s="0" t="s">
-        <v>193</v>
+        <v>387</v>
       </c>
       <c r="GG1" s="0" t="s">
-        <v>194</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>630</v>
       </c>
       <c r="B2" s="0">
-        <v>1.1414063612434997</v>
+        <v>8.1487197875976563</v>
       </c>
       <c r="C2" s="0">
-        <v>3.3299440512468883</v>
+        <v>13.807878224510674</v>
       </c>
       <c r="D2" s="0">
-        <v>2.1885376900033888</v>
+        <v>5.6591584369130175</v>
       </c>
       <c r="E2" s="0">
-        <v>2.2028261543606282</v>
+        <v>11.879301784541134</v>
       </c>
       <c r="F2" s="0">
-        <v>-1.0607412331452659</v>
+        <v>-2.5397399168497397</v>
       </c>
       <c r="G2" s="0">
-        <v>0.57599942770125079</v>
+        <v>4.2208900451660156</v>
       </c>
       <c r="H2" s="0">
-        <v>1.6367406608465167</v>
+        <v>6.7606299620157557</v>
       </c>
       <c r="I2" s="0">
-        <v>-0.89087537525136862</v>
+        <v>0.81620742236176369</v>
       </c>
       <c r="J2" s="0">
-        <v>6.4873995220813585</v>
+        <v>15.519210395053781</v>
       </c>
       <c r="K2" s="0">
-        <v>7.3782748973327275</v>
+        <v>14.703002972692017</v>
       </c>
       <c r="L2" s="0">
-        <v>13.494199752807617</v>
+        <v>23.433958356359561</v>
       </c>
       <c r="M2" s="0">
-        <v>11.35056962168545</v>
+        <v>16.99530029296875</v>
       </c>
       <c r="N2" s="0">
-        <v>2.1436301311221673</v>
+        <v>6.438658063390811</v>
       </c>
       <c r="O2" s="0">
-        <v>12.264768335409553</v>
+        <v>20.74595021535772</v>
       </c>
       <c r="P2" s="0">
-        <v>3.0497201592496528</v>
+        <v>-1.0140713625245648</v>
       </c>
       <c r="Q2" s="0">
-        <v>-2.1287080297831182</v>
+        <v>-6.4675771513938027</v>
       </c>
       <c r="R2" s="0">
-        <v>3.0497201592496528</v>
+        <v>-1.65564075185806</v>
       </c>
       <c r="S2" s="0">
-        <v>0.6378710176358231</v>
+        <v>-1.0140713625245648</v>
       </c>
       <c r="T2" s="0">
-        <v>-0.79559023106725846</v>
+        <v>-2.4486883745279435</v>
       </c>
       <c r="U2" s="0">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="V2" s="0">
-        <v>5.178428189032771</v>
+        <v>5.4535057888692382</v>
       </c>
       <c r="W2" s="0">
-        <v>-0.79298553679296002</v>
+        <v>-8.9883321629509592</v>
       </c>
       <c r="X2" s="0">
-        <v>4.8487958417324606</v>
+        <v>8.0709706657602514</v>
       </c>
       <c r="Y2" s="0">
-        <v>5.6417813785254207</v>
+        <v>17.059302828711211</v>
       </c>
       <c r="Z2" s="0">
-        <v>-0.72997958402121144</v>
+        <v>19.657144462571559</v>
       </c>
       <c r="AA2" s="0">
-        <v>34.475156026750618</v>
+        <v>50.303068765437544</v>
       </c>
       <c r="AB2" s="0">
-        <v>34.475156026750618</v>
+        <v>50.303068765437544</v>
       </c>
       <c r="AC2" s="0">
-        <v>35.205135610771826</v>
+        <v>30.645924302865986</v>
       </c>
       <c r="AD2" s="0">
-        <v>26.653999328613281</v>
+        <v>43.770500183105469</v>
       </c>
       <c r="AE2" s="0">
-        <v>-5.8323734355080985</v>
+        <v>-7.1845793724060059</v>
       </c>
       <c r="AF2" s="0">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AG2" s="0">
-        <v>5.651793770365023</v>
+        <v>1.4062118064015166</v>
       </c>
       <c r="AH2" s="0">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="AI2" s="0">
-        <v>11.484167205873121</v>
+        <v>8.5907911788075229</v>
       </c>
       <c r="AJ2" s="0">
-        <v>-19.847922255137483</v>
+        <v>4.5924109258113486</v>
       </c>
       <c r="AK2" s="0">
-        <v>-11.643400192260742</v>
+        <v>20.822550197827681</v>
       </c>
       <c r="AL2" s="0">
-        <v>8.204522062876741</v>
+        <v>16.230139272016331</v>
       </c>
       <c r="AM2" s="0">
-        <v>-17.293212202639154</v>
+        <v>12.354108069349348</v>
       </c>
       <c r="AN2" s="0">
-        <v>-11.643400192260742</v>
+        <v>14.349399566650391</v>
       </c>
       <c r="AO2" s="0">
-        <v>-3.7872340757855039</v>
+        <v>19.691646280716231</v>
       </c>
       <c r="AP2" s="0">
-        <v>56.744005266580309</v>
+        <v>44.547986835978314</v>
       </c>
       <c r="AQ2" s="0">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="AR2" s="0">
-        <v>56.744005266580309</v>
+        <v>44.547986835978314</v>
       </c>
       <c r="AS2" s="0">
-        <v>60.531239342365815</v>
+        <v>24.856340555262083</v>
       </c>
       <c r="AT2" s="0">
-        <v>-3.5763299465179443</v>
+        <v>21.452400207519531</v>
       </c>
       <c r="AU2" s="0">
-        <v>5.893680864885062</v>
+        <v>27.882304485011282</v>
       </c>
       <c r="AV2" s="0">
-        <v>-3.5763299465179443</v>
+        <v>19.932752005385606</v>
       </c>
       <c r="AW2" s="0">
-        <v>14.706432315133659</v>
+        <v>24.327681717918082</v>
       </c>
       <c r="AX2" s="0">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="AY2" s="0">
-        <v>-2.3073144422727037</v>
+        <v>-2.6125012702924773</v>
       </c>
       <c r="AZ2" s="0">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BA2" s="0">
-        <v>17.013746757406363</v>
+        <v>26.940182988210559</v>
       </c>
       <c r="BB2" s="0">
-        <v>3.0076100826263428</v>
+        <v>2.0097899436950684</v>
       </c>
       <c r="BC2" s="0">
-        <v>-2.3073144422727037</v>
+        <v>-2.6125012702924773</v>
       </c>
       <c r="BD2" s="0">
-        <v>13.283442955358426</v>
+        <v>24.327681717918082</v>
       </c>
       <c r="BE2" s="0">
-        <v>-5.9591237967784245</v>
+        <v>-9.2762838907239971</v>
       </c>
       <c r="BF2" s="0">
-        <v>-1.7264077702002409</v>
+        <v>11.517325099390838</v>
       </c>
       <c r="BG2" s="0">
-        <v>-4.7819731060802662</v>
+        <v>9.289930963941611</v>
       </c>
       <c r="BH2" s="0">
-        <v>-0.48001639850427119</v>
+        <v>7.6954242441229335</v>
       </c>
       <c r="BI2" s="0">
-        <v>0.83814366832435616</v>
+        <v>14.344385997066116</v>
       </c>
       <c r="BJ2" s="0">
-        <v>0.83814366832435616</v>
+        <v>6.6489617529431824</v>
       </c>
       <c r="BK2" s="0">
-        <v>-0.083063553315726221</v>
+        <v>12.044670553891452</v>
       </c>
       <c r="BL2" s="0">
-        <v>0.77440564770074516</v>
+        <v>-4.2217834026505265</v>
       </c>
       <c r="BM2" s="0">
-        <v>0.76741721065283552</v>
+        <v>3.4292613378702015</v>
       </c>
       <c r="BN2" s="0">
-        <v>32</v>
+        <v>7.651044740520728</v>
       </c>
       <c r="BO2" s="0">
-        <v>0.77440564770074516</v>
+        <v>-15.526311899151599</v>
       </c>
       <c r="BP2" s="0">
-        <v>35</v>
+        <v>-0.19325770842245027</v>
       </c>
       <c r="BQ2" s="0">
-        <v>67</v>
+        <v>15.333054190729149</v>
       </c>
       <c r="BR2" s="0">
-        <v>0.4678518882304189</v>
+        <v>23.803339009066907</v>
       </c>
       <c r="BS2" s="0">
-        <v>0.70320413899884826</v>
+        <v>16.995354044983291</v>
       </c>
       <c r="BT2" s="0">
-        <v>0.57446710346929364</v>
+        <v>6.8079849640836159</v>
       </c>
       <c r="BU2" s="0">
-        <v>-0.062607309585427498</v>
+        <v>20.54225402282837</v>
       </c>
       <c r="BV2" s="0">
-        <v>0.07404434309900336</v>
+        <v>6.4751123061404634</v>
       </c>
       <c r="BW2" s="0">
-        <v>-0.42457164007382042</v>
+        <v>1.0169611201685114</v>
       </c>
       <c r="BX2" s="0">
-        <v>0.2630122402274947</v>
+        <v>4.15726220234201</v>
       </c>
       <c r="BY2" s="0">
-        <v>0.2630122402274947</v>
+        <v>6.4751123061404634</v>
       </c>
       <c r="BZ2" s="0">
-        <v>-0.14744552410753126</v>
+        <v>4.2475646441928543</v>
       </c>
       <c r="CA2" s="0">
-        <v>-0.018400608191669651</v>
+        <v>82</v>
       </c>
       <c r="CB2" s="0">
-        <v>-0.057168753337698462</v>
+        <v>5.4581511859719516</v>
       </c>
       <c r="CC2" s="0">
-        <v>0.29757729898372076</v>
+        <v>-8.0991449668797326</v>
       </c>
       <c r="CD2" s="0">
-        <v>0.20271488723290573</v>
+        <v>8.9931704614049792</v>
       </c>
       <c r="CE2" s="0">
-        <v>0.073543032758942486</v>
+        <v>17.092315428284714</v>
       </c>
       <c r="CF2" s="0">
-        <v>-0.021159379425941587</v>
+        <v>20.806730314689553</v>
       </c>
       <c r="CG2" s="0">
-        <v>-0.19545539564683995</v>
+        <v>38.70770543908678</v>
       </c>
       <c r="CH2" s="0">
-        <v>1.0397368278359067</v>
+        <v>38.70770543908678</v>
       </c>
       <c r="CI2" s="0">
-        <v>0.94526754425665716</v>
+        <v>17.900975124397227</v>
       </c>
       <c r="CJ2" s="0">
-        <v>-0.24379226520756528</v>
+        <v>36.506099700927734</v>
       </c>
       <c r="CK2" s="0">
-        <v>0.1921575175934653</v>
+        <v>-2.0895351318377005</v>
       </c>
       <c r="CL2" s="0">
-        <v>0.32833177921173073</v>
+        <v>5</v>
       </c>
       <c r="CM2" s="0">
-        <v>-1.929963933409707</v>
+        <v>5.0216226511845203</v>
       </c>
       <c r="CN2" s="0">
-        <v>-0.15561148375085501</v>
+        <v>48</v>
       </c>
       <c r="CO2" s="0">
-        <v>1.5566316666004276</v>
+        <v>7.1111577830222208</v>
       </c>
       <c r="CP2" s="0">
-        <v>-0.90723952799179686</v>
+        <v>-4.6356793218243242</v>
       </c>
       <c r="CQ2" s="0">
-        <v>-0.022322631007178444</v>
-      </c>
-      <c r="CR2" s="0"/>
-      <c r="CS2" s="0"/>
-      <c r="CT2" s="0"/>
-      <c r="CU2" s="0"/>
-      <c r="CV2" s="0"/>
-      <c r="CW2" s="0"/>
-      <c r="CX2" s="0"/>
-      <c r="CY2" s="0"/>
-      <c r="CZ2" s="0"/>
-      <c r="DA2" s="0"/>
-      <c r="DB2" s="0"/>
-      <c r="DC2" s="0"/>
-      <c r="DD2" s="0"/>
-      <c r="DE2" s="0"/>
-      <c r="DF2" s="0"/>
-      <c r="DG2" s="0"/>
-      <c r="DH2" s="0"/>
-      <c r="DI2" s="0"/>
-      <c r="DJ2" s="0"/>
-      <c r="DK2" s="0"/>
-      <c r="DL2" s="0"/>
-      <c r="DM2" s="0"/>
+        <v>4.1869299043066555</v>
+      </c>
+      <c r="CR2" s="0">
+        <v>8.8226092261309788</v>
+      </c>
+      <c r="CS2" s="0">
+        <v>0.62147954242229608</v>
+      </c>
+      <c r="CT2" s="0">
+        <v>-0.5417725145816803</v>
+      </c>
+      <c r="CU2" s="0">
+        <v>10.126140350933994</v>
+      </c>
+      <c r="CV2" s="0">
+        <v>28.591422166857679</v>
+      </c>
+      <c r="CW2" s="0">
+        <v>77</v>
+      </c>
+      <c r="CX2" s="0">
+        <v>28.591422166857679</v>
+      </c>
+      <c r="CY2" s="0">
+        <v>18.465281815923685</v>
+      </c>
+      <c r="CZ2" s="0">
+        <v>11.020300388336182</v>
+      </c>
+      <c r="DA2" s="0">
+        <v>19.36254729322506</v>
+      </c>
+      <c r="DB2" s="0">
+        <v>10.126140350933994</v>
+      </c>
+      <c r="DC2" s="0">
+        <v>14.557504088150456</v>
+      </c>
+      <c r="DD2" s="0">
+        <v>57</v>
+      </c>
+      <c r="DE2" s="0">
+        <v>-4.520901097402267</v>
+      </c>
+      <c r="DF2" s="0">
+        <v>3</v>
+      </c>
+      <c r="DG2" s="0">
+        <v>19.078405185552722</v>
+      </c>
+      <c r="DH2" s="0">
+        <v>1.2864199876785278</v>
+      </c>
+      <c r="DI2" s="0">
+        <v>-4.520901097402267</v>
+      </c>
+      <c r="DJ2" s="0">
+        <v>8.9095900952060951</v>
+      </c>
+      <c r="DK2" s="0">
+        <v>-14.575970569243822</v>
+      </c>
+      <c r="DL2" s="0">
+        <v>-1.2228918379178886</v>
+      </c>
+      <c r="DM2" s="0">
+        <v>-3.5745773178891951</v>
+      </c>
       <c r="DN2" s="0"/>
       <c r="DO2" s="0"/>
       <c r="DP2" s="0"/>
@@ -1789,355 +3503,355 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>631</v>
       </c>
       <c r="B3" s="0">
-        <v>0.4500931056394275</v>
+        <v>8.2176987919869138</v>
       </c>
       <c r="C3" s="0">
-        <v>4.9098438383990102</v>
+        <v>13.694589317831372</v>
       </c>
       <c r="D3" s="0">
-        <v>4.4597507327595824</v>
+        <v>5.4768905258444587</v>
       </c>
       <c r="E3" s="0">
-        <v>2.0522712396899778</v>
+        <v>11.52617818255229</v>
       </c>
       <c r="F3" s="0">
-        <v>-1.2802476905655713</v>
+        <v>-3.0775522792616119</v>
       </c>
       <c r="G3" s="0">
-        <v>1.7736177558584585</v>
+        <v>4.7779065424055762</v>
       </c>
       <c r="H3" s="0">
-        <v>3.0538654464240298</v>
+        <v>7.8554588216671881</v>
       </c>
       <c r="I3" s="0">
-        <v>-2.0598243755799581</v>
+        <v>-0.77860389083500614</v>
       </c>
       <c r="J3" s="0">
-        <v>7.4591302871704102</v>
+        <v>11.359807928194474</v>
       </c>
       <c r="K3" s="0">
-        <v>9.5189546627503674</v>
+        <v>12.13841181902948</v>
       </c>
       <c r="L3" s="0">
-        <v>14.323473359291246</v>
+        <v>23.551617343743892</v>
       </c>
       <c r="M3" s="0">
-        <v>10.817366171452663</v>
+        <v>18.241116475430903</v>
       </c>
       <c r="N3" s="0">
-        <v>3.5061071878385821</v>
+        <v>5.3105008683129888</v>
       </c>
       <c r="O3" s="0">
-        <v>12.456871476329741</v>
+        <v>20.725310679944464</v>
       </c>
       <c r="P3" s="0">
-        <v>3.9550874931521851</v>
+        <v>0.8051798105510255</v>
       </c>
       <c r="Q3" s="0">
-        <v>-2.782706732092544</v>
+        <v>-5.0295484600402842</v>
       </c>
       <c r="R3" s="0">
-        <v>3.9550874931521851</v>
+        <v>0.34345936135648658</v>
       </c>
       <c r="S3" s="0">
-        <v>0.46078461059958842</v>
+        <v>0.8051798105510255</v>
       </c>
       <c r="T3" s="0">
-        <v>-1.2468467909986916</v>
+        <v>-1.0524971412174362</v>
       </c>
       <c r="U3" s="0">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="V3" s="0">
-        <v>6.7377942252447287</v>
+        <v>5.8347282705913095</v>
       </c>
       <c r="W3" s="0">
-        <v>-1.9663070782214616</v>
+        <v>-8.9462831575703206</v>
       </c>
       <c r="X3" s="0">
-        <v>5.9154818892895724</v>
+        <v>3.9900258624930887</v>
       </c>
       <c r="Y3" s="0">
-        <v>7.8817889675110342</v>
+        <v>12.936309020063408</v>
       </c>
       <c r="Z3" s="0">
-        <v>-0.51851438704223263</v>
+        <v>18.563664153693761</v>
       </c>
       <c r="AA3" s="0">
-        <v>35.865448536054537</v>
+        <v>47.841519385432711</v>
       </c>
       <c r="AB3" s="0">
-        <v>35.865448536054537</v>
+        <v>47.841519385432711</v>
       </c>
       <c r="AC3" s="0">
-        <v>36.383962923096767</v>
+        <v>29.27785523173895</v>
       </c>
       <c r="AD3" s="0">
-        <v>25.971299171447754</v>
+        <v>44.671798706054688</v>
       </c>
       <c r="AE3" s="0">
-        <v>-7.8124772996755718</v>
+        <v>-6.899590015411377</v>
       </c>
       <c r="AF3" s="0">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="AG3" s="0">
-        <v>6.1309591847817666</v>
+        <v>1.8632462671021208</v>
       </c>
       <c r="AH3" s="0">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="AI3" s="0">
-        <v>13.943436484457338</v>
+        <v>8.7628362825134971</v>
       </c>
       <c r="AJ3" s="0">
-        <v>-20.32999165675675</v>
+        <v>3.0810388880340036</v>
       </c>
       <c r="AK3" s="0">
-        <v>-12.855299949645996</v>
+        <v>16.431613859231884</v>
       </c>
       <c r="AL3" s="0">
-        <v>7.4746917071107539</v>
+        <v>13.350574971197881</v>
       </c>
       <c r="AM3" s="0">
-        <v>-17.433181834438155</v>
+        <v>9.4625640468715098</v>
       </c>
       <c r="AN3" s="0">
-        <v>-13.237800121307373</v>
+        <v>10.645760059356689</v>
       </c>
       <c r="AO3" s="0">
-        <v>-4.6321832948577688</v>
+        <v>16.663254129181446</v>
       </c>
       <c r="AP3" s="0">
-        <v>56.364875648614728</v>
+        <v>41.904907065459014</v>
       </c>
       <c r="AQ3" s="0">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="AR3" s="0">
-        <v>56.364875648614728</v>
+        <v>41.904907065459014</v>
       </c>
       <c r="AS3" s="0">
-        <v>60.997058943472496</v>
+        <v>25.241652936277568</v>
       </c>
       <c r="AT3" s="0">
-        <v>-2.4359049201011658</v>
+        <v>18.575448989868164</v>
       </c>
       <c r="AU3" s="0">
-        <v>4.8753000022730086</v>
+        <v>27.637747731851793</v>
       </c>
       <c r="AV3" s="0">
-        <v>-2.8874599933624268</v>
+        <v>16.663254129181446</v>
       </c>
       <c r="AW3" s="0">
-        <v>15.090000152587891</v>
+        <v>21.550803845942628</v>
       </c>
       <c r="AX3" s="0">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="AY3" s="0">
-        <v>-4.9991598548124747</v>
+        <v>-5.6687845816424174</v>
       </c>
       <c r="AZ3" s="0">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BA3" s="0">
-        <v>20.089160007400366</v>
+        <v>27.219588427585045</v>
       </c>
       <c r="BB3" s="0">
-        <v>1.1711580157279968</v>
+        <v>-0.40993897616863251</v>
       </c>
       <c r="BC3" s="0">
-        <v>-4.9991598548124747</v>
+        <v>-5.6687845816424174</v>
       </c>
       <c r="BD3" s="0">
-        <v>14.295352168330005</v>
+        <v>21.550803845942628</v>
       </c>
       <c r="BE3" s="0">
-        <v>-10.008382540825338</v>
+        <v>-11.863425277819209</v>
       </c>
       <c r="BF3" s="0">
-        <v>-2.0260814010926937</v>
+        <v>2.3954315097562504</v>
       </c>
       <c r="BG3" s="0">
-        <v>-6.3180101068702861</v>
+        <v>-2.4576237874864084</v>
       </c>
       <c r="BH3" s="0">
-        <v>-0.56917555983977886</v>
+        <v>8.2175481149471405</v>
       </c>
       <c r="BI3" s="0">
-        <v>0.6764088920319975</v>
+        <v>13.637413207253445</v>
       </c>
       <c r="BJ3" s="0">
-        <v>0.6764088920319975</v>
+        <v>5.4198650923063045</v>
       </c>
       <c r="BK3" s="0">
-        <v>-0.12346431679665222</v>
+        <v>11.370561754579063</v>
       </c>
       <c r="BL3" s="0">
-        <v>0.76596172057493916</v>
+        <v>-4.7688929573139101</v>
       </c>
       <c r="BM3" s="0">
-        <v>0.76596172057493916</v>
+        <v>3.078392764671019</v>
       </c>
       <c r="BN3" s="0">
-        <v>24</v>
+        <v>7.847285721984929</v>
       </c>
       <c r="BO3" s="0">
-        <v>0.76129937838633344</v>
+        <v>-9.0644943875228066</v>
       </c>
       <c r="BP3" s="0">
-        <v>65</v>
+        <v>0.79399778401764576</v>
       </c>
       <c r="BQ3" s="0">
-        <v>97</v>
+        <v>9.858492171540453</v>
       </c>
       <c r="BR3" s="0">
-        <v>0.417888057456689</v>
+        <v>23.551057100201508</v>
       </c>
       <c r="BS3" s="0">
-        <v>0.63072363481973859</v>
+        <v>18.333898544311523</v>
       </c>
       <c r="BT3" s="0">
-        <v>0.51437080503214594</v>
+        <v>5.2171585558899842</v>
       </c>
       <c r="BU3" s="0">
-        <v>-0.050385217404142389</v>
+        <v>20.62178112369487</v>
       </c>
       <c r="BV3" s="0">
-        <v>0.0851338897072665</v>
+        <v>5.0403040692173189</v>
       </c>
       <c r="BW3" s="0">
-        <v>-0.35700889824963211</v>
+        <v>-0.8082685001965314</v>
       </c>
       <c r="BX3" s="0">
-        <v>0.17303685830927643</v>
+        <v>3.2526408604250729</v>
       </c>
       <c r="BY3" s="0">
-        <v>0.17091350782719281</v>
+        <v>5.0403040692173189</v>
       </c>
       <c r="BZ3" s="0">
-        <v>-0.15411590613863077</v>
+        <v>3.1626195223762155</v>
       </c>
       <c r="CA3" s="0">
-        <v>-0.023637671316843651</v>
+        <v>88</v>
       </c>
       <c r="CB3" s="0">
-        <v>-0.092972070310201479</v>
+        <v>5.8485725694138502</v>
       </c>
       <c r="CC3" s="0">
-        <v>0.30216619798698036</v>
+        <v>0.16412391976379295</v>
       </c>
       <c r="CD3" s="0">
-        <v>0.15808582005089275</v>
+        <v>7.4893791746226084</v>
       </c>
       <c r="CE3" s="0">
-        <v>0.084805174156601715</v>
+        <v>7.3252552548588152</v>
       </c>
       <c r="CF3" s="0">
-        <v>-0.031251604104516627</v>
+        <v>23.04130563609862</v>
       </c>
       <c r="CG3" s="0">
-        <v>-0.12253998229904016</v>
+        <v>40.325233138434477</v>
       </c>
       <c r="CH3" s="0">
-        <v>0.93442885161934874</v>
+        <v>40.325233138434477</v>
       </c>
       <c r="CI3" s="0">
-        <v>1.0424331038394037</v>
+        <v>17.283927502335857</v>
       </c>
       <c r="CJ3" s="0">
-        <v>-0.26660157956114566</v>
+        <v>38.532798767089844</v>
       </c>
       <c r="CK3" s="0">
-        <v>0.20275494404570366</v>
+        <v>-1.8899978906894515</v>
       </c>
       <c r="CL3" s="0">
-        <v>0.44594311874556175</v>
+        <v>12</v>
       </c>
       <c r="CM3" s="0">
-        <v>-2.1951507972682069</v>
+        <v>5.1110419354675001</v>
       </c>
       <c r="CN3" s="0">
-        <v>-0.17287509371953136</v>
+        <v>47</v>
       </c>
       <c r="CO3" s="0">
-        <v>1.3343297141884383</v>
+        <v>7.0010398261569513</v>
       </c>
       <c r="CP3" s="0">
-        <v>-0.89601155542319377</v>
+        <v>-5.4916522888964536</v>
       </c>
       <c r="CQ3" s="0">
-        <v>-0.024371418285785415</v>
+        <v>2.2950908289893137</v>
       </c>
       <c r="CR3" s="0">
-        <v>0.62675899125916323</v>
+        <v>7.7867431178857673</v>
       </c>
       <c r="CS3" s="0">
-        <v>4.9121036362386894</v>
+        <v>-1.3837471273067803</v>
       </c>
       <c r="CT3" s="0">
-        <v>4.2853446449795261</v>
+        <v>0.064905300736427307</v>
       </c>
       <c r="CU3" s="0">
-        <v>2.3634492067631343</v>
+        <v>10.793590830113747</v>
       </c>
       <c r="CV3" s="0">
-        <v>-1.0590666714236732</v>
+        <v>32.462356874819029</v>
       </c>
       <c r="CW3" s="0">
-        <v>0.79890943814887427</v>
+        <v>79</v>
       </c>
       <c r="CX3" s="0">
-        <v>1.8579761095725473</v>
+        <v>32.462356874819029</v>
       </c>
       <c r="CY3" s="0">
-        <v>-7.2890701293945313</v>
+        <v>21.668766044705283</v>
       </c>
       <c r="CZ3" s="0">
-        <v>2.0612170831427861</v>
+        <v>12.047599792480469</v>
       </c>
       <c r="DA3" s="0">
-        <v>9.3502872125373173</v>
+        <v>17.355709174995933</v>
       </c>
       <c r="DB3" s="0">
-        <v>14.324340712842583</v>
+        <v>10.793590830113747</v>
       </c>
       <c r="DC3" s="0">
-        <v>10.815945711876422</v>
+        <v>15.816444242837232</v>
       </c>
       <c r="DD3" s="0">
-        <v>3.5083950009661606</v>
+        <v>64</v>
       </c>
       <c r="DE3" s="0">
-        <v>12.31369600259346</v>
+        <v>-4.1142303273495946</v>
       </c>
       <c r="DF3" s="0">
-        <v>2.2686882356227107</v>
+        <v>7</v>
       </c>
       <c r="DG3" s="0">
-        <v>-2.7133529058216621</v>
+        <v>19.930674570186827</v>
       </c>
       <c r="DH3" s="0">
-        <v>2.2686882356227107</v>
+        <v>2.5511999130249023</v>
       </c>
       <c r="DI3" s="0">
-        <v>-0.89661157098533761</v>
+        <v>-4.1142303273495946</v>
       </c>
       <c r="DJ3" s="0">
-        <v>-1.7088253371797952</v>
+        <v>9.4449021012564671</v>
       </c>
       <c r="DK3" s="0">
-        <v>20</v>
+        <v>-7.1909353797797362</v>
       </c>
       <c r="DL3" s="0">
-        <v>4.9820411414443733</v>
+        <v>3.938543889139881</v>
       </c>
       <c r="DM3" s="0">
-        <v>-5.1138901710510254</v>
+        <v>-1.1339144102582088</v>
       </c>
       <c r="DN3" s="0">
         <v>1.9627801473210813</v>
@@ -2358,355 +4072,355 @@
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>632</v>
+      </c>
+      <c r="B4" s="0">
+        <v>11.883749945763928</v>
+      </c>
+      <c r="C4" s="0">
+        <v>16.84363707672507</v>
+      </c>
+      <c r="D4" s="0">
+        <v>4.9598871309611425</v>
+      </c>
+      <c r="E4" s="0">
+        <v>14.767032863113343</v>
+      </c>
+      <c r="F4" s="0">
+        <v>-2.1262405418044317</v>
+      </c>
+      <c r="G4" s="0">
+        <v>5.1735200881958008</v>
+      </c>
+      <c r="H4" s="0">
+        <v>7.2997606300002325</v>
+      </c>
+      <c r="I4" s="0">
+        <v>0.67525862135373804</v>
+      </c>
+      <c r="J4" s="0">
+        <v>16.006386040362734</v>
+      </c>
+      <c r="K4" s="0">
+        <v>15.331127419008997</v>
+      </c>
+      <c r="L4" s="0">
+        <v>26.398605296432549</v>
+      </c>
+      <c r="M4" s="0">
+        <v>20.015373456995146</v>
+      </c>
+      <c r="N4" s="0">
+        <v>6.3832318394374035</v>
+      </c>
+      <c r="O4" s="0">
+        <v>23.922047381706466</v>
+      </c>
+      <c r="P4" s="0">
+        <v>0.62089442293868324</v>
+      </c>
+      <c r="Q4" s="0">
+        <v>-5.2451162196898933</v>
+      </c>
+      <c r="R4" s="0">
+        <v>-0.37881546949452194</v>
+      </c>
+      <c r="S4" s="0">
+        <v>0.62089442293868324</v>
+      </c>
+      <c r="T4" s="0">
+        <v>-0.88229967632061179</v>
+      </c>
+      <c r="U4" s="0">
+        <v>64</v>
+      </c>
+      <c r="V4" s="0">
+        <v>5.8660106426285763</v>
+      </c>
+      <c r="W4" s="0">
+        <v>-7.406202665115277</v>
+      </c>
+      <c r="X4" s="0">
+        <v>4.4641799926757813</v>
+      </c>
+      <c r="Y4" s="0">
+        <v>11.870382657791058</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>23.411519440340648</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>52.002087735588503</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>52.002087735588503</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>28.590568295247856</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>47.838534037272133</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>-7.5416531956777124</v>
+      </c>
+      <c r="AF4" s="0">
+        <v>9</v>
+      </c>
+      <c r="AG4" s="0">
+        <v>1.6901518308792096</v>
+      </c>
+      <c r="AH4" s="0">
+        <v>64</v>
+      </c>
+      <c r="AI4" s="0">
+        <v>9.2318050265569216</v>
+      </c>
+      <c r="AJ4" s="0">
+        <v>2.3317018194940413</v>
+      </c>
+      <c r="AK4" s="0">
+        <v>18.355581994767441</v>
+      </c>
+      <c r="AL4" s="0">
+        <v>16.023880175273398</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>10.443934367267204</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>10.606583595275879</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>13.792645112190415</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>45.455663772860618</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>88</v>
+      </c>
+      <c r="AR4" s="0">
+        <v>45.455663772860618</v>
+      </c>
+      <c r="AS4" s="0">
+        <v>31.663018660670204</v>
+      </c>
+      <c r="AT4" s="0">
+        <v>22.363766988118488</v>
+      </c>
+      <c r="AU4" s="0">
+        <v>30.231993182927056</v>
+      </c>
+      <c r="AV4" s="0">
+        <v>13.792645112190415</v>
+      </c>
+      <c r="AW4" s="0">
+        <v>22.778905415017142</v>
+      </c>
+      <c r="AX4" s="0">
+        <v>89</v>
+      </c>
+      <c r="AY4" s="0">
+        <v>-9.4721483990066222</v>
+      </c>
+      <c r="AZ4" s="0">
         <v>3</v>
       </c>
-      <c r="B4" s="0">
-        <v>1.0298787661829172</v>
-      </c>
-      <c r="C4" s="0">
-        <v>3.6705041838465147</v>
-      </c>
-      <c r="D4" s="0">
-        <v>2.6406254176635975</v>
-      </c>
-      <c r="E4" s="0">
-        <v>2.4347904053171887</v>
-      </c>
-      <c r="F4" s="0">
-        <v>-0.40069212931188336</v>
-      </c>
-      <c r="G4" s="0">
-        <v>0.52998584412202632</v>
-      </c>
-      <c r="H4" s="0">
-        <v>0.93067797343390968</v>
-      </c>
-      <c r="I4" s="0">
-        <v>-3.2657697694729491</v>
-      </c>
-      <c r="J4" s="0">
-        <v>5.6558806621520619</v>
-      </c>
-      <c r="K4" s="0">
-        <v>8.9216504316250109</v>
-      </c>
-      <c r="L4" s="0">
-        <v>13.708199501037598</v>
-      </c>
-      <c r="M4" s="0">
-        <v>10.879703146413117</v>
-      </c>
-      <c r="N4" s="0">
-        <v>2.8284963546244803</v>
-      </c>
-      <c r="O4" s="0">
-        <v>12.095143271654942</v>
-      </c>
-      <c r="P4" s="0">
-        <v>2.8057911153528621</v>
-      </c>
-      <c r="Q4" s="0">
-        <v>-2.2666070972844921</v>
-      </c>
-      <c r="R4" s="0">
-        <v>2.8057911153528621</v>
-      </c>
-      <c r="S4" s="0">
-        <v>0.11824316021278092</v>
-      </c>
-      <c r="T4" s="0">
-        <v>-1.0822602792710254</v>
-      </c>
-      <c r="U4" s="0">
-        <v>16</v>
-      </c>
-      <c r="V4" s="0">
-        <v>5.0723982126373546</v>
-      </c>
-      <c r="W4" s="0">
-        <v>-1.7811271531490922</v>
-      </c>
-      <c r="X4" s="0">
-        <v>5.5293814494109572</v>
-      </c>
-      <c r="Y4" s="0">
-        <v>7.3105086025600494</v>
-      </c>
-      <c r="Z4" s="0">
-        <v>-0.4723355909282011</v>
-      </c>
-      <c r="AA4" s="0">
-        <v>36.638159654275867</v>
-      </c>
-      <c r="AB4" s="0">
-        <v>36.638159654275867</v>
-      </c>
-      <c r="AC4" s="0">
-        <v>37.110495245204071</v>
-      </c>
-      <c r="AD4" s="0">
-        <v>26.563199996948242</v>
-      </c>
-      <c r="AE4" s="0">
-        <v>-6.7184948015548915</v>
-      </c>
-      <c r="AF4" s="0">
-        <v>72</v>
-      </c>
-      <c r="AG4" s="0">
-        <v>4.6587431049894112</v>
-      </c>
-      <c r="AH4" s="0">
-        <v>21</v>
-      </c>
-      <c r="AI4" s="0">
-        <v>11.377237906544302</v>
-      </c>
-      <c r="AJ4" s="0">
-        <v>-19.582055347378212</v>
-      </c>
-      <c r="AK4" s="0">
-        <v>-12.705400466918945</v>
-      </c>
-      <c r="AL4" s="0">
-        <v>6.8766548804592666</v>
-      </c>
-      <c r="AM4" s="0">
-        <v>-15.853531114062964</v>
-      </c>
-      <c r="AN4" s="0">
-        <v>-13.184598922729492</v>
-      </c>
-      <c r="AO4" s="0">
-        <v>-4.0277581911502987</v>
-      </c>
-      <c r="AP4" s="0">
-        <v>58.39795604211124</v>
-      </c>
-      <c r="AQ4" s="0">
-        <v>78</v>
-      </c>
-      <c r="AR4" s="0">
-        <v>58.39795604211124</v>
-      </c>
-      <c r="AS4" s="0">
-        <v>62.425714233261537</v>
-      </c>
-      <c r="AT4" s="0">
-        <v>-3.5750000476837158</v>
-      </c>
-      <c r="AU4" s="0">
-        <v>3.6166516534968105</v>
-      </c>
-      <c r="AV4" s="0">
-        <v>-3.5750000476837158</v>
-      </c>
-      <c r="AW4" s="0">
-        <v>13.595760500234078</v>
-      </c>
-      <c r="AX4" s="0">
-        <v>56</v>
-      </c>
-      <c r="AY4" s="0">
-        <v>-4.0182663489964154</v>
-      </c>
-      <c r="AZ4" s="0">
-        <v>10</v>
-      </c>
       <c r="BA4" s="0">
-        <v>17.614026849230495</v>
+        <v>32.251053814023763</v>
       </c>
       <c r="BB4" s="0">
-        <v>3.2224900722503662</v>
+        <v>2.4567242066065469</v>
       </c>
       <c r="BC4" s="0">
-        <v>-4.0182663489964154</v>
+        <v>-9.4721483990066222</v>
       </c>
       <c r="BD4" s="0">
-        <v>12.835915394258164</v>
+        <v>22.778905415017142</v>
       </c>
       <c r="BE4" s="0">
-        <v>-6.8788684269236571</v>
+        <v>-10.450001887192879</v>
       </c>
       <c r="BF4" s="0">
-        <v>-0.55390793085098267</v>
+        <v>8.4600884290743146</v>
       </c>
       <c r="BG4" s="0">
-        <v>-5.0216687705819227</v>
+        <v>2.8628464866305543</v>
       </c>
       <c r="BH4" s="0">
-        <v>-0.51289066853207876</v>
+        <v>11.880235628592946</v>
       </c>
       <c r="BI4" s="0">
-        <v>0.60055643558896166</v>
+        <v>16.840226127342778</v>
       </c>
       <c r="BJ4" s="0">
-        <v>0.60055643558896166</v>
+        <v>4.959990498749832</v>
       </c>
       <c r="BK4" s="0">
-        <v>-0.094309245084173751</v>
+        <v>14.869842747949258</v>
       </c>
       <c r="BL4" s="0">
-        <v>0.75793670606451957</v>
+        <v>-4.716615229443458</v>
       </c>
       <c r="BM4" s="0">
-        <v>0.74257751815338024</v>
+        <v>2.1309128192947773</v>
       </c>
       <c r="BN4" s="0">
-        <v>22</v>
+        <v>6.8475280487382353</v>
       </c>
       <c r="BO4" s="0">
-        <v>0.75793670606451957</v>
+        <v>-16.007723187564469</v>
       </c>
       <c r="BP4" s="0">
-        <v>39</v>
+        <v>-0.67424467308667468</v>
       </c>
       <c r="BQ4" s="0">
-        <v>71</v>
+        <v>15.333478514477795</v>
       </c>
       <c r="BR4" s="0">
-        <v>0.50530310488640684</v>
+        <v>26.128890504106106</v>
       </c>
       <c r="BS4" s="0">
-        <v>0.64757386069871481</v>
+        <v>20.018100738525391</v>
       </c>
       <c r="BT4" s="0">
-        <v>0.5691890412850501</v>
+        <v>6.1107897655807157</v>
       </c>
       <c r="BU4" s="0">
-        <v>-0.061931664983806846</v>
+        <v>23.994252328215762</v>
       </c>
       <c r="BV4" s="0">
-        <v>0.066181243252796132</v>
+        <v>5.3067685711779831</v>
       </c>
       <c r="BW4" s="0">
-        <v>-0.30582245374181311</v>
+        <v>-0.61875043742335978</v>
       </c>
       <c r="BX4" s="0">
-        <v>0.26490613146129255</v>
+        <v>2.6072811705054537</v>
       </c>
       <c r="BY4" s="0">
-        <v>0.26490613146129255</v>
+        <v>5.3067685711779831</v>
       </c>
       <c r="BZ4" s="0">
-        <v>-0.15617037887289809</v>
+        <v>2.9592843792321601</v>
       </c>
       <c r="CA4" s="0">
-        <v>-0.018638099622286235</v>
+        <v>85</v>
       </c>
       <c r="CB4" s="0">
-        <v>-0.068236202690594674</v>
+        <v>5.9255190086013432</v>
       </c>
       <c r="CC4" s="0">
-        <v>0.29384085344095501</v>
+        <v>-4.4284172732772991</v>
       </c>
       <c r="CD4" s="0">
-        <v>0.19731295175762456</v>
+        <v>7.4063503969446449</v>
       </c>
       <c r="CE4" s="0">
-        <v>0.06692359214499255</v>
+        <v>11.834767670221943</v>
       </c>
       <c r="CF4" s="0">
-        <v>-0.032497138163468602</v>
+        <v>25.73056619977298</v>
       </c>
       <c r="CG4" s="0">
-        <v>-0.20449204375954616</v>
+        <v>42.163278800040146</v>
       </c>
       <c r="CH4" s="0">
-        <v>0.94343234928389941</v>
+        <v>42.163278800040146</v>
       </c>
       <c r="CI4" s="0">
-        <v>0.88830001630373245</v>
+        <v>16.432712600267166</v>
       </c>
       <c r="CJ4" s="0">
-        <v>-0.16301241180042214</v>
+        <v>41.256250381469727</v>
       </c>
       <c r="CK4" s="0">
-        <v>0.15902494100646719</v>
+        <v>-3.136969703512257</v>
       </c>
       <c r="CL4" s="0">
-        <v>0.28319528812114636</v>
+        <v>13</v>
       </c>
       <c r="CM4" s="0">
-        <v>-1.6862148521511005</v>
+        <v>3.2004728023900579</v>
       </c>
       <c r="CN4" s="0">
-        <v>-0.14907916312584238</v>
+        <v>85</v>
       </c>
       <c r="CO4" s="0">
-        <v>1.3459469739179062</v>
+        <v>6.3374425059023149</v>
       </c>
       <c r="CP4" s="0">
-        <v>-0.67700737262292765</v>
+        <v>-3.2772613828170591</v>
       </c>
       <c r="CQ4" s="0">
-        <v>-0.023116453560204066</v>
+        <v>6.7020737674604929</v>
       </c>
       <c r="CR4" s="0">
-        <v>-0.15360345676681492</v>
+        <v>9.9793351502775529</v>
       </c>
       <c r="CS4" s="0">
-        <v>3.6700478492728408</v>
+        <v>0.61545257922478691</v>
       </c>
       <c r="CT4" s="0">
-        <v>3.8236513060396558</v>
+        <v>-0.55913899838924408</v>
       </c>
       <c r="CU4" s="0">
-        <v>1.7991395397541599</v>
+        <v>11.031599998474121</v>
       </c>
       <c r="CV4" s="0">
-        <v>-0.76913100481033325</v>
+        <v>31.989783636091715</v>
       </c>
       <c r="CW4" s="0">
-        <v>0.36953640387568976</v>
+        <v>80</v>
       </c>
       <c r="CX4" s="0">
-        <v>1.1386674086860231</v>
+        <v>31.989783636091715</v>
       </c>
       <c r="CY4" s="0">
-        <v>-7.730335704410046</v>
+        <v>20.958183637617594</v>
       </c>
       <c r="CZ4" s="0">
-        <v>3.2632245719220645</v>
+        <v>12.760049819946289</v>
       </c>
       <c r="DA4" s="0">
-        <v>10.993560276332111</v>
+        <v>20.941037876095706</v>
       </c>
       <c r="DB4" s="0">
-        <v>13.268633381545346</v>
+        <v>11.031599998474121</v>
       </c>
       <c r="DC4" s="0">
-        <v>10.819022705378613</v>
+        <v>16.584057273123182</v>
       </c>
       <c r="DD4" s="0">
-        <v>2.4496106761667331</v>
+        <v>48</v>
       </c>
       <c r="DE4" s="0">
-        <v>11.826268614335406</v>
+        <v>-2.8654675161563525</v>
       </c>
       <c r="DF4" s="0">
-        <v>2.2747894860144768</v>
+        <v>4</v>
       </c>
       <c r="DG4" s="0">
-        <v>-2.4170760015626138</v>
+        <v>19.449524789279536</v>
       </c>
       <c r="DH4" s="0">
-        <v>2.2747894860144768</v>
+        <v>2.9180099964141846</v>
       </c>
       <c r="DI4" s="0">
-        <v>-0.893069323994932</v>
+        <v>-2.8654675161563525</v>
       </c>
       <c r="DJ4" s="0">
-        <v>-1.826392267479434</v>
+        <v>10.090055200230353</v>
       </c>
       <c r="DK4" s="0">
-        <v>20</v>
+        <v>-11.855293977422187</v>
       </c>
       <c r="DL4" s="0">
-        <v>4.6918654875770907</v>
+        <v>5.9702000617980957</v>
       </c>
       <c r="DM4" s="0">
-        <v>-6.7741604663448634</v>
+        <v>-0.98142244038682658</v>
       </c>
       <c r="DN4" s="0">
         <v>1.7863700557679851</v>
@@ -2927,7 +4641,7 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>4</v>
+        <v>199</v>
       </c>
       <c r="B5" s="0">
         <v>0.73580890013585332</v>
@@ -3496,7 +5210,7 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>5</v>
+        <v>200</v>
       </c>
       <c r="B6" s="0"/>
       <c r="C6" s="0"/>
